--- a/biology/Zoologie/Heliconius_clysonymus/Heliconius_clysonymus.xlsx
+++ b/biology/Zoologie/Heliconius_clysonymus/Heliconius_clysonymus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius clysonymus est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,146 +523,263 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius clysonymus a été décrit par Pierre-André Latreille en 1817[1].
-Sous-espèces
-Heliconius clysonymus clysonymus Latreille, 1817; présent en Colombie et au Venezuela.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius clysonymus a été décrit par Pierre-André Latreille en 1817.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius clysonymus clysonymus Latreille, 1817; présent en Colombie et au Venezuela.
 Heliconius clysonymus fischeri Fassl
 Heliconius clysonymus hygiana Hewitson; présent en Équateur
 Heliconius clysonymus montanus Salvin, 1871; présent au Costa Rica et à Panama.
-Heliconius clysonymus tabaconas Brown, 1976; présent au Pérou[1].
-Noms vernaculaires
-Heliconius clysonymus se nomme Clysonymus Longwing ou Yellow Longwing en anglais. Heliconius clysonymus montanus se nomme Montane Longwing[2].
+Heliconius clysonymus tabaconas Brown, 1976; présent au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius clysonymus se nomme Clysonymus Longwing ou Yellow Longwing en anglais. Heliconius clysonymus montanus se nomme Montane Longwing.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon d'une envergure de 75 mm et plus, aux ailes allongées et arrondies[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon d'une envergure de 75 mm et plus, aux ailes allongées et arrondies.
 Le dessus est de couleur noire, les ailes antérieures sont barrées d'une bande irrégulière blanche allant de la moitié du bord costal à l'angle interne et les ailes postérieures sont ornées d'une très large bande rouge orangé partant du bord interne près de la base.
 Le revers est marron avec aux ailes antérieures la même bande irrégulière blanche que sur le dessus.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passiflora, Tryphostemmatoides et Plectostemma, celles de la chenille de Heliconius clysonymus montanus sont Passiflora apelata et Passiflora biflora[4],[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passiflora, Tryphostemmatoides et Plectostemma, celles de la chenille de Heliconius clysonymus montanus sont Passiflora apelata et Passiflora biflora,.
 Sur les autres projets Wikimedia :
 Heliconius clysonymus, sur Wikimedia CommonsHeliconius clysonymus, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius clysonymus est présent au Honduras, au Costa Rica, au Nicaragua, à Panama, en Colombie, au Venezuela, en Équateur et au Pérou[1].
-Biotope
-Heliconius clysonymus réside dans la forêt tropicale humide jusqu'à une altitude de 2 500 m[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius clysonymus est présent au Honduras, au Costa Rica, au Nicaragua, à Panama, en Colombie, au Venezuela, en Équateur et au Pérou.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius clysonymus réside dans la forêt tropicale humide jusqu'à une altitude de 2 500 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_clysonymus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
